--- a/biology/Zoologie/Echinodermata_(classification_phylogénétique)/Echinodermata_(classification_phylogénétique).xlsx
+++ b/biology/Zoologie/Echinodermata_(classification_phylogénétique)/Echinodermata_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Echinodermata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Echinodermata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Echinodermata (Échinodermes), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Echinodermata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Echinodermata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -1156,7 +1170,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Echinodermata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Echinodermata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1174,7 +1188,9 @@
           <t>Débat scientifique relatif à la phylogénie des Echinodermata</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes classes actuelles d'Échinodermes, tous pentaradiés, sont bien individualisées. Mais la phylogénie de l'ensemble du groupe, ainsi que la définition de celui-ci, deviennent délicates dès lors qu'on y inclut les nombreuses classes fossiles, et plus encore en rajoutant les formes plus anciennes provenant d'Ediacara ou des schistes de Burgess.
 La position de certains groupes a même été contestée (les Mitrata ont parfois été considérés comme des Chordés – les « Calcichordés » – ou les Tribrachididés au contraire comme proches des Échinodermes plutôt que des Cnidaires).
@@ -1220,7 +1236,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Echinodermata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Echinodermata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1238,9 +1254,11 @@
           <t>Classification de référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification de référence actuellement (et celle utilisée par Wikipédia) est celle proposée par le site World Register of Marine Species, établie par un collège de spécialistes mondiaux sur la base de publications scientifiques citées, et régulièrement mise à jour[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification de référence actuellement (et celle utilisée par Wikipédia) est celle proposée par le site World Register of Marine Species, établie par un collège de spécialistes mondiaux sur la base de publications scientifiques citées, et régulièrement mise à jour.
 Classification selon WoRMS
 sous-embranchement Asterozoa Zittel, 1895
 classe Asteroidea (de Blainville, 1830) - étoile de mer
@@ -1349,7 +1367,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Echinodermata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Echinodermata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1369,8 +1387,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sources bibliographiques de référence
-Andrew B. Smith : « Deuterostomes in a twist: the origins of a radical new body plan », Evolution and Development, vol. 10, n° 4, 2008, pp. 493-503
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Andrew B. Smith : « Deuterostomes in a twist: the origins of a radical new body plan », Evolution and Development, vol. 10, n° 4, 2008, pp. 493-503
 David L. Pawson : « Phylum Echinodermata », in Z.-Q. Zhang et W.A. Shear (éd.) : « Linnaeus Tercentenary: Progress in Invertebrate Taxonomy », Zootaxa, vol. 1668, 2007, pp. 749-764
 Juliette Dean Shackleton : « Skeletal homologies, phylogeny and classification of the earliest asterozoan echinoderms », Journal of Systematic Palaeontology, vol. 3, n°1, 2005, pp. 29–114
 Bertrand Lefebvre : « Stylophoran supertrees revisited », Acta Palaeontologica Polonica, vol. 50, n° 3, 2005, pp. 477–486
